--- a/bycle.xlsx
+++ b/bycle.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aodrl\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aodrl\Desktop\project\CMW_V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCAF8CF-921C-443C-BC16-5279993C4EE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766F5AAD-4F20-4086-8847-B6AAEAC0DB66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D1CBCB76-673C-4006-8480-38ADD051AF2F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{D1CBCB76-673C-4006-8480-38ADD051AF2F}"/>
   </bookViews>
   <sheets>
     <sheet name="메리다" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="자이언트" sheetId="3" r:id="rId3"/>
     <sheet name="트랙" sheetId="4" r:id="rId4"/>
     <sheet name="캐논데일" sheetId="5" r:id="rId5"/>
+    <sheet name="선택된 자전거" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="57">
   <si>
     <t>자전거명</t>
   </si>
@@ -213,6 +214,18 @@
   </si>
   <si>
     <t>CAAD13 105</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOPSTONE 4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>시마노 GRX 400</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이크로쉬프트</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -221,8 +234,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="180" formatCode="#,##0_ "/>
-    <numFmt numFmtId="181" formatCode="#,##0_);[Red]\(#,##0\)"/>
+    <numFmt numFmtId="176" formatCode="#,##0_ "/>
+    <numFmt numFmtId="177" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -814,10 +827,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -882,6 +895,319 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>45721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1630680</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>17927</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F94EE6A-0ED2-4578-9292-161BD3FD5A92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76201" y="2034541"/>
+          <a:ext cx="3977639" cy="2402986"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1668781</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>45721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>129541</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104443</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF8D8177-3963-4246-A813-8922185B4249}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4091941" y="2034541"/>
+          <a:ext cx="4091940" cy="2489502"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>45721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>198121</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>143414</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8BFD769-F37A-4097-A5D7-8AC9DBD556C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8282941" y="2034541"/>
+          <a:ext cx="3992880" cy="2528473"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1607820</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>144146</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8832E24F-3636-4D76-AB68-D8831C41FA08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="99060" y="4572000"/>
+          <a:ext cx="3931920" cy="2422526"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1653541</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>99061</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>914401</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123743</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29443664-579C-4ED7-A9F1-9BBB92FA62FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4076701" y="4518661"/>
+          <a:ext cx="3086100" cy="2455462"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>106681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>70341</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5D14953-2179-440F-9D74-905E1A4D308E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7239000" y="4526281"/>
+          <a:ext cx="4238481" cy="2476500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>396241</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>84997</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8325222-01D5-4B57-9F79-DE1A6DF74C44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2613661" y="7071361"/>
+          <a:ext cx="5836920" cy="3399696"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1187,16 +1513,16 @@
       <selection activeCell="E5" sqref="A5:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.09765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1216,7 +1542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1236,7 +1562,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -1256,7 +1582,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -1276,7 +1602,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -1296,7 +1622,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -1316,7 +1642,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
@@ -1336,7 +1662,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
@@ -1365,20 +1691,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0293D477-B6B9-4270-B00C-031C1CFE6EF9}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1398,7 +1724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
@@ -1416,7 +1742,7 @@
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
@@ -1434,7 +1760,7 @@
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
@@ -1463,19 +1789,19 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A6" sqref="A6:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="26.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="26.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1495,7 +1821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -1512,7 +1838,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -1529,7 +1855,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>38</v>
       </c>
@@ -1546,7 +1872,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>35</v>
       </c>
@@ -1563,7 +1889,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1580,7 +1906,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -1597,7 +1923,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -1614,7 +1940,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>43</v>
       </c>
@@ -1645,20 +1971,20 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.8984375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1678,7 +2004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1695,7 +2021,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>48</v>
       </c>
@@ -1712,7 +2038,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>49</v>
       </c>
@@ -1729,7 +2055,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1757,15 +2083,16 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="9.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.8984375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1785,7 +2112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -1802,7 +2129,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -1823,4 +2150,178 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA749AA8-79E6-431B-9E24-77FE55A51DB5}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="25.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.8984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1785000</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1320000</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1670000</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1960000</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1230000</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1600000</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/bycle.xlsx
+++ b/bycle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aodrl\Desktop\project\CMW_V2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aodrl\Desktop\Project\CMW_V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766F5AAD-4F20-4086-8847-B6AAEAC0DB66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7295918-6BE8-4088-897D-A9F2D056AFDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{D1CBCB76-673C-4006-8480-38ADD051AF2F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D1CBCB76-673C-4006-8480-38ADD051AF2F}"/>
   </bookViews>
   <sheets>
     <sheet name="메리다" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="70">
   <si>
     <t>자전거명</t>
   </si>
@@ -226,6 +226,58 @@
   </si>
   <si>
     <t>마이크로쉬프트</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>메이커</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>스페셜라이즈드</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>자이언트</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>트랙</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐논데일</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>스프라켓</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>11x34T</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>기어비</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>50x34T</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>싱글 파워미터인 자이언트 파워 프로 S</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOPSTONE 2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>M-L</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -902,13 +954,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
+      <xdr:colOff>28576</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>45721</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1630680</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>430530</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>17927</xdr:rowOff>
     </xdr:to>
@@ -933,8 +985,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="76201" y="2034541"/>
-          <a:ext cx="3977639" cy="2402986"/>
+          <a:off x="28576" y="1931671"/>
+          <a:ext cx="3973829" cy="2277256"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -945,14 +997,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1668781</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>449581</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>45721</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>129541</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>729616</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>104443</xdr:rowOff>
     </xdr:to>
@@ -977,8 +1029,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4091941" y="2034541"/>
-          <a:ext cx="4091940" cy="2489502"/>
+          <a:off x="4021456" y="1931671"/>
+          <a:ext cx="4109085" cy="2363772"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -989,14 +1041,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>828676</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>45721</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>198121</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>350521</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>143414</xdr:rowOff>
     </xdr:to>
@@ -1021,8 +1073,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8282941" y="2034541"/>
-          <a:ext cx="3992880" cy="2528473"/>
+          <a:off x="8229601" y="1931671"/>
+          <a:ext cx="4084320" cy="2402743"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1034,13 +1086,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
+      <xdr:colOff>51435</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1607820</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>407670</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>144146</xdr:rowOff>
     </xdr:to>
@@ -1065,8 +1117,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="99060" y="4572000"/>
-          <a:ext cx="3931920" cy="2422526"/>
+          <a:off x="51435" y="4343400"/>
+          <a:ext cx="3928110" cy="2296796"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1077,14 +1129,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1653541</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>434341</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>99061</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>914401</xdr:colOff>
+      <xdr:colOff>1609726</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>123743</xdr:rowOff>
     </xdr:to>
@@ -1109,8 +1161,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4076701" y="4518661"/>
-          <a:ext cx="3086100" cy="2455462"/>
+          <a:off x="4006216" y="4290061"/>
+          <a:ext cx="3089910" cy="2329732"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1122,13 +1174,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>990600</xdr:colOff>
+      <xdr:colOff>1685925</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>106681</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>70341</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>222741</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
@@ -1153,8 +1205,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7239000" y="4526281"/>
-          <a:ext cx="4238481" cy="2476500"/>
+          <a:off x="7172325" y="4297681"/>
+          <a:ext cx="4328016" cy="2350770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1166,13 +1218,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
+      <xdr:colOff>133351</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>396241</xdr:colOff>
+      <xdr:colOff>281941</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>84997</xdr:rowOff>
     </xdr:to>
@@ -1197,8 +1249,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2613661" y="7071361"/>
-          <a:ext cx="5836920" cy="3399696"/>
+          <a:off x="2962276" y="6705601"/>
+          <a:ext cx="5854065" cy="3228246"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1507,22 +1559,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42077FFB-9134-4C34-B0AC-0117B7D71B00}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="A5:E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1542,7 +1594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1562,7 +1614,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -1582,7 +1634,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -1602,7 +1654,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -1622,7 +1674,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -1642,7 +1694,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
@@ -1662,7 +1714,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
@@ -1679,6 +1731,11 @@
         <v>23</v>
       </c>
       <c r="F8" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -1695,16 +1752,16 @@
       <selection activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1724,7 +1781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
@@ -1742,7 +1799,7 @@
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
@@ -1760,7 +1817,7 @@
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
@@ -1792,16 +1849,16 @@
       <selection activeCell="A6" sqref="A6:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="26.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1821,7 +1878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -1838,7 +1895,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -1855,7 +1912,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>38</v>
       </c>
@@ -1872,7 +1929,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>35</v>
       </c>
@@ -1889,7 +1946,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1906,7 +1963,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -1923,7 +1980,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -1940,7 +1997,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>43</v>
       </c>
@@ -1974,17 +2031,17 @@
       <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.8984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2004,7 +2061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -2021,7 +2078,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>48</v>
       </c>
@@ -2038,7 +2095,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>49</v>
       </c>
@@ -2055,7 +2112,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -2086,13 +2143,13 @@
       <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.8984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2112,7 +2169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -2129,7 +2186,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -2154,167 +2211,213 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA749AA8-79E6-431B-9E24-77FE55A51DB5}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="25.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C2" s="1">
         <v>1785000</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C3" s="1">
         <v>1320000</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C4" s="1">
         <v>1670000</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C5" s="1">
         <v>1960000</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="2">
+      <c r="C6" s="2">
         <v>1230000</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="4" t="s">
+      <c r="C8" s="2">
+        <v>1600000</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1600000</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="F8" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>56</v>
       </c>
     </row>
